--- a/excel/finished/焦化12/CK12-炼焦-2#焦炉加热制度报表(日).xlsx
+++ b/excel/finished/焦化12/CK12-炼焦-2#焦炉加热制度报表(日).xlsx
@@ -6172,7 +6172,7 @@
       </c>
       <c r="AV6" s="22"/>
     </row>
-    <row ht="18.75" r="7">
+    <row ht="14.25" r="7">
       <c r="B7" s="25" t="s">
         <v>49</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18">
-        <v>9999</v>
+        <v>-9999</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="18">
